--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/29.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/29.xlsx
@@ -479,13 +479,13 @@
         <v>-15.46732779154369</v>
       </c>
       <c r="E2" t="n">
-        <v>-14.15655266896339</v>
+        <v>-14.17193612480242</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.52191427432166</v>
+        <v>-0.5090445406282433</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.45234742595383</v>
+        <v>-10.47284997220398</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-15.09183882618378</v>
       </c>
       <c r="E3" t="n">
-        <v>-14.36394783827917</v>
+        <v>-14.37781258698856</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.51455640012461</v>
+        <v>-0.499932297850402</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.2069714860942</v>
+        <v>-10.22611243284881</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-14.65978150973517</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.67932832143351</v>
+        <v>-14.69451539272991</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4357538293202608</v>
+        <v>-0.4222949419989664</v>
       </c>
       <c r="G4" t="n">
-        <v>-9.782597581782493</v>
+        <v>-9.80342743560368</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-14.19174092867767</v>
       </c>
       <c r="E5" t="n">
-        <v>-15.13659009048363</v>
+        <v>-15.15326968430399</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.3776109124001553</v>
+        <v>-0.3621750873497603</v>
       </c>
       <c r="G5" t="n">
-        <v>-9.564702385587648</v>
+        <v>-9.58642251600207</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-13.68375183167471</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.58047152602952</v>
+        <v>-15.59830324249995</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3604861802831776</v>
+        <v>-0.3457835241919193</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.374026087000749</v>
+        <v>-9.396662678614092</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-13.13983398050777</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.0530643817073</v>
+        <v>-16.07369785098586</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.3824288798459105</v>
+        <v>-0.3632748407884653</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.233048170001043</v>
+        <v>-9.255475284768918</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-12.57821841360056</v>
       </c>
       <c r="E8" t="n">
-        <v>-16.55540294944149</v>
+        <v>-16.57841921783724</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1629887919157399</v>
+        <v>-0.1458116905873953</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.030811368004899</v>
+        <v>-9.053159928955726</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-12.01572064110741</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.17504855063754</v>
+        <v>-17.20110223329258</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03556907298187765</v>
+        <v>0.05499805039899913</v>
       </c>
       <c r="G9" t="n">
-        <v>-9.053997836337595</v>
+        <v>-9.076739166373674</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-11.48306775067484</v>
       </c>
       <c r="E10" t="n">
-        <v>-17.59549476409673</v>
+        <v>-17.62332899993824</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1622371029755774</v>
+        <v>0.1792570966698213</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.740712121637934</v>
+        <v>-8.762510805869407</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-10.99707298960832</v>
       </c>
       <c r="E11" t="n">
-        <v>-18.12323239934387</v>
+        <v>-18.15323995745711</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2881195947987735</v>
+        <v>0.3051264961901757</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.663087858089339</v>
+        <v>-8.685750634308366</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-10.57961566886887</v>
       </c>
       <c r="E12" t="n">
-        <v>-18.64410966790194</v>
+        <v>-18.67486348727716</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3681921189787701</v>
+        <v>0.3874247118532657</v>
       </c>
       <c r="G12" t="n">
-        <v>-8.161050413320512</v>
+        <v>-8.1840143125049</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-10.22974807178163</v>
       </c>
       <c r="E13" t="n">
-        <v>-19.40411784786414</v>
+        <v>-19.43636418976331</v>
       </c>
       <c r="F13" t="n">
-        <v>0.5032523150940162</v>
+        <v>0.5238988766754182</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.568126202224422</v>
+        <v>-7.593970408033988</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-9.948502954130262</v>
       </c>
       <c r="E14" t="n">
-        <v>-20.22907694222414</v>
+        <v>-20.2615065763631</v>
       </c>
       <c r="F14" t="n">
-        <v>0.741231103848071</v>
+        <v>0.764221187638142</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.98794080179333</v>
+        <v>-7.017293744764481</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-9.715290822072332</v>
       </c>
       <c r="E15" t="n">
-        <v>-21.02401538616806</v>
+        <v>-21.05726983538605</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8211334280911252</v>
+        <v>0.8450661576858004</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.43862705146303</v>
+        <v>-6.471069777904828</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-9.509694581556483</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.91315294905821</v>
+        <v>-21.94550402938011</v>
       </c>
       <c r="F16" t="n">
-        <v>1.065854752808669</v>
+        <v>1.09074322051079</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.942310943036037</v>
+        <v>-5.972423239572007</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-9.305213692468156</v>
       </c>
       <c r="E17" t="n">
-        <v>-22.55334037341293</v>
+        <v>-22.58491900786717</v>
       </c>
       <c r="F17" t="n">
-        <v>1.242757948806072</v>
+        <v>1.268026093290603</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.819766988437481</v>
+        <v>-5.850900484595105</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-9.08174490430363</v>
       </c>
       <c r="E18" t="n">
-        <v>-23.33341905363149</v>
+        <v>-23.36591414928466</v>
       </c>
       <c r="F18" t="n">
-        <v>1.563034953223216</v>
+        <v>1.591026296698827</v>
       </c>
       <c r="G18" t="n">
-        <v>-5.421800258957533</v>
+        <v>-5.452842108995266</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-8.826326072370238</v>
       </c>
       <c r="E19" t="n">
-        <v>-24.1311461580807</v>
+        <v>-24.16513377625783</v>
       </c>
       <c r="F19" t="n">
-        <v>1.813804921853637</v>
+        <v>1.842215219020183</v>
       </c>
       <c r="G19" t="n">
-        <v>-5.169995998402616</v>
+        <v>-5.199584602824917</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-8.531022075537885</v>
       </c>
       <c r="E20" t="n">
-        <v>-24.88273598731567</v>
+        <v>-24.91676288240132</v>
       </c>
       <c r="F20" t="n">
-        <v>2.037997515715355</v>
+        <v>2.06632925906485</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.930249748764928</v>
+        <v>-4.963451828771546</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-8.196933568651106</v>
       </c>
       <c r="E21" t="n">
-        <v>-25.46188709582227</v>
+        <v>-25.49605800623917</v>
       </c>
       <c r="F21" t="n">
-        <v>2.394186706827354</v>
+        <v>2.421444881343828</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.677659950039507</v>
+        <v>-4.708649430865872</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-7.82457597429621</v>
       </c>
       <c r="E22" t="n">
-        <v>-26.03823645152073</v>
+        <v>-26.07269539260015</v>
       </c>
       <c r="F22" t="n">
-        <v>2.685516629661442</v>
+        <v>2.710339635849355</v>
       </c>
       <c r="G22" t="n">
-        <v>-4.386631150170778</v>
+        <v>-4.421731614089445</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-7.428368774331075</v>
       </c>
       <c r="E23" t="n">
-        <v>-26.54018225016967</v>
+        <v>-26.57308320721092</v>
       </c>
       <c r="F23" t="n">
-        <v>2.882346310583952</v>
+        <v>2.906776547686613</v>
       </c>
       <c r="G23" t="n">
-        <v>-4.234996098657906</v>
+        <v>-4.268761147686718</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.020518845304823</v>
       </c>
       <c r="E24" t="n">
-        <v>-26.75541970888764</v>
+        <v>-26.788726527317</v>
       </c>
       <c r="F24" t="n">
-        <v>3.008687033006609</v>
+        <v>3.033405300771788</v>
       </c>
       <c r="G24" t="n">
-        <v>-4.055395888275108</v>
+        <v>-4.089645352509064</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-6.624182796646652</v>
       </c>
       <c r="E25" t="n">
-        <v>-27.06060128812828</v>
+        <v>-27.09283453772461</v>
       </c>
       <c r="F25" t="n">
-        <v>3.315387319376883</v>
+        <v>3.340341248593214</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.802072920590551</v>
+        <v>-3.835183354477276</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-6.254513464464769</v>
       </c>
       <c r="E26" t="n">
-        <v>-27.02868225380015</v>
+        <v>-27.06067984194533</v>
       </c>
       <c r="F26" t="n">
-        <v>3.393077044439686</v>
+        <v>3.420361403561843</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.76118565881584</v>
+        <v>-3.795566046078213</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-5.9324081760908</v>
       </c>
       <c r="E27" t="n">
-        <v>-26.95908357189353</v>
+        <v>-26.98999449890285</v>
       </c>
       <c r="F27" t="n">
-        <v>3.405540916745009</v>
+        <v>3.431123276497742</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.706708586691418</v>
+        <v>-3.737410036855266</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-5.666888991039463</v>
       </c>
       <c r="E28" t="n">
-        <v>-26.87204594260174</v>
+        <v>-26.90396497692987</v>
       </c>
       <c r="F28" t="n">
-        <v>3.470845323319539</v>
+        <v>3.494018699349394</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.707009709656778</v>
+        <v>-3.73531526840059</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-5.47092933441145</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.72907799557009</v>
+        <v>-26.75900699986628</v>
       </c>
       <c r="F29" t="n">
-        <v>3.482209442186157</v>
+        <v>3.504728203073926</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.633967752102788</v>
+        <v>-3.660950988259585</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-5.344840832418594</v>
       </c>
       <c r="E30" t="n">
-        <v>-26.61412757661974</v>
+        <v>-26.64319248892837</v>
       </c>
       <c r="F30" t="n">
-        <v>3.456469974799324</v>
+        <v>3.476972521049467</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.593604182441747</v>
+        <v>-3.620430310964443</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-5.29032595811994</v>
       </c>
       <c r="E31" t="n">
-        <v>-26.21087155679173</v>
+        <v>-26.23877125414745</v>
       </c>
       <c r="F31" t="n">
-        <v>3.351705367459832</v>
+        <v>3.371081975665586</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.783900804246235</v>
+        <v>-3.807925179960802</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-5.298503791024459</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.87978031022732</v>
+        <v>-25.90641005420739</v>
       </c>
       <c r="F32" t="n">
-        <v>3.304546892623935</v>
+        <v>3.322823747390984</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.874015124705836</v>
+        <v>-3.897764562060727</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-5.360614789417612</v>
       </c>
       <c r="E33" t="n">
-        <v>-25.46082661929209</v>
+        <v>-25.48743017866648</v>
       </c>
       <c r="F33" t="n">
-        <v>3.18443810635394</v>
+        <v>3.202322192035737</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.028190082970002</v>
+        <v>-4.045799230292124</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-5.461686601730766</v>
       </c>
       <c r="E34" t="n">
-        <v>-25.00538468033696</v>
+        <v>-25.03112414772379</v>
       </c>
       <c r="F34" t="n">
-        <v>3.104732166653511</v>
+        <v>3.121228468234086</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.949308958348602</v>
+        <v>-3.964077075954069</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-5.585899475316418</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.65106768853133</v>
+        <v>-24.6753146333942</v>
       </c>
       <c r="F35" t="n">
-        <v>2.850584383889925</v>
+        <v>2.867499639161435</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.049399613573598</v>
+        <v>-4.061536178307878</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-5.718888507681534</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.95642937665787</v>
+        <v>-23.98083342915485</v>
       </c>
       <c r="F36" t="n">
-        <v>2.731653904875685</v>
+        <v>2.745819776550433</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.366324988463261</v>
+        <v>-4.377126138307685</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-5.846576933518064</v>
       </c>
       <c r="E37" t="n">
-        <v>-23.52702802805494</v>
+        <v>-23.55004429645069</v>
       </c>
       <c r="F37" t="n">
-        <v>2.576248270144397</v>
+        <v>2.591121126172597</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.445114466964768</v>
+        <v>-4.45354590999484</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.961326029594197</v>
       </c>
       <c r="E38" t="n">
-        <v>-23.15377956634017</v>
+        <v>-23.17563061978301</v>
       </c>
       <c r="F38" t="n">
-        <v>2.518956352909004</v>
+        <v>2.533357886034902</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.551175212285592</v>
+        <v>-4.560654039543001</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-6.054688542712989</v>
       </c>
       <c r="E39" t="n">
-        <v>-22.67759941968375</v>
+        <v>-22.6987958579845</v>
       </c>
       <c r="F39" t="n">
-        <v>2.478789167790588</v>
+        <v>2.493557285396055</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.485491128928651</v>
+        <v>-4.493202495302429</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-6.12731263877666</v>
       </c>
       <c r="E40" t="n">
-        <v>-22.31881795260909</v>
+        <v>-22.33933359116207</v>
       </c>
       <c r="F40" t="n">
-        <v>2.460093359332603</v>
+        <v>2.47789889119735</v>
       </c>
       <c r="G40" t="n">
-        <v>-4.540504985469584</v>
+        <v>-4.546278691022786</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-6.178313431657227</v>
       </c>
       <c r="E41" t="n">
-        <v>-21.80362274348433</v>
+        <v>-21.82371942834638</v>
       </c>
       <c r="F41" t="n">
-        <v>2.545559912283391</v>
+        <v>2.561453967933246</v>
       </c>
       <c r="G41" t="n">
-        <v>-4.47182276476189</v>
+        <v>-4.477517916498041</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-6.216337155146889</v>
       </c>
       <c r="E42" t="n">
-        <v>-21.18696218733619</v>
+        <v>-21.2053830574345</v>
       </c>
       <c r="F42" t="n">
-        <v>2.67161260404353</v>
+        <v>2.686616383100147</v>
       </c>
       <c r="G42" t="n">
-        <v>-4.482728653029048</v>
+        <v>-4.488882035364659</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-6.246375596284138</v>
       </c>
       <c r="E43" t="n">
-        <v>-20.53551538253758</v>
+        <v>-20.55360894506485</v>
       </c>
       <c r="F43" t="n">
-        <v>2.782242563056115</v>
+        <v>2.7974558189582</v>
       </c>
       <c r="G43" t="n">
-        <v>-4.475842101734299</v>
+        <v>-4.483396360473976</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-6.27983700836839</v>
       </c>
       <c r="E44" t="n">
-        <v>-20.2826244608468</v>
+        <v>-20.29970991605525</v>
       </c>
       <c r="F44" t="n">
-        <v>2.733303535033742</v>
+        <v>2.747286114468706</v>
       </c>
       <c r="G44" t="n">
-        <v>-4.560077978217965</v>
+        <v>-4.56671577575872</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-6.322847822763308</v>
       </c>
       <c r="E45" t="n">
-        <v>-19.84524989981326</v>
+        <v>-19.86097375552617</v>
       </c>
       <c r="F45" t="n">
-        <v>2.809500737572588</v>
+        <v>2.824897285714458</v>
       </c>
       <c r="G45" t="n">
-        <v>-4.544249384082319</v>
+        <v>-4.549892166607102</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-6.385805439804849</v>
       </c>
       <c r="E46" t="n">
-        <v>-19.49226832289748</v>
+        <v>-19.50868607066101</v>
       </c>
       <c r="F46" t="n">
-        <v>2.851108076003594</v>
+        <v>2.866138039665895</v>
       </c>
       <c r="G46" t="n">
-        <v>-4.649956637226414</v>
+        <v>-4.651946667258357</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-6.472952664093685</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.01189863933171</v>
+        <v>-19.02656201851444</v>
       </c>
       <c r="F47" t="n">
-        <v>2.884022125347693</v>
+        <v>2.898345104656542</v>
       </c>
       <c r="G47" t="n">
-        <v>-4.962404444544207</v>
+        <v>-4.963216167320394</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-6.590892707495143</v>
       </c>
       <c r="E48" t="n">
-        <v>-18.5562734081368</v>
+        <v>-18.57038691060018</v>
       </c>
       <c r="F48" t="n">
-        <v>2.850584383889925</v>
+        <v>2.863886163577118</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.089007013023698</v>
+        <v>-5.089504520531684</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-6.742079411744501</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.08445299832668</v>
+        <v>-18.10094929990725</v>
       </c>
       <c r="F49" t="n">
-        <v>2.879649296198556</v>
+        <v>2.892663045223232</v>
       </c>
       <c r="G49" t="n">
-        <v>-5.340955288909875</v>
+        <v>-5.342473996039515</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-6.928438324533908</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.59765499406562</v>
+        <v>-17.61336575747569</v>
       </c>
       <c r="F50" t="n">
-        <v>2.929897554505101</v>
+        <v>2.945451210281072</v>
       </c>
       <c r="G50" t="n">
-        <v>-5.435272238581669</v>
+        <v>-5.431802778328612</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-7.150108055357871</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.90706220377025</v>
+        <v>-16.92349304383662</v>
       </c>
       <c r="F51" t="n">
-        <v>2.906776547686613</v>
+        <v>2.923456141506972</v>
       </c>
       <c r="G51" t="n">
-        <v>-5.652264065880437</v>
+        <v>-5.648676774901804</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-7.403620105761619</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.53153568136102</v>
+        <v>-16.54749519852509</v>
       </c>
       <c r="F52" t="n">
-        <v>2.788736345265611</v>
+        <v>2.803923416562013</v>
       </c>
       <c r="G52" t="n">
-        <v>-5.793503828936978</v>
+        <v>-5.794132259473381</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-7.687530203016888</v>
       </c>
       <c r="E53" t="n">
-        <v>-16.10730579238057</v>
+        <v>-16.12423413995493</v>
       </c>
       <c r="F53" t="n">
-        <v>2.857994627298342</v>
+        <v>2.872212868184456</v>
       </c>
       <c r="G53" t="n">
-        <v>-5.852890514627047</v>
+        <v>-5.852694130084422</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-7.993426255183709</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.83027266424965</v>
+        <v>-15.84943979560994</v>
       </c>
       <c r="F54" t="n">
-        <v>2.615603732486625</v>
+        <v>2.629193542836337</v>
       </c>
       <c r="G54" t="n">
-        <v>-6.088407950446857</v>
+        <v>-6.086575028049016</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-8.319740195698506</v>
       </c>
       <c r="E55" t="n">
-        <v>-15.49190209730524</v>
+        <v>-15.51241773585822</v>
       </c>
       <c r="F55" t="n">
-        <v>2.453809053968575</v>
+        <v>2.467791633403538</v>
       </c>
       <c r="G55" t="n">
-        <v>-6.303828701404618</v>
+        <v>-6.299953379763467</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-8.654484488216934</v>
       </c>
       <c r="E56" t="n">
-        <v>-15.08373646391159</v>
+        <v>-15.10646470164482</v>
       </c>
       <c r="F56" t="n">
-        <v>2.398847566639009</v>
+        <v>2.412882515285339</v>
       </c>
       <c r="G56" t="n">
-        <v>-6.498458875449718</v>
+        <v>-6.497817352610474</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-8.995324459722154</v>
       </c>
       <c r="E57" t="n">
-        <v>-14.54371824859891</v>
+        <v>-14.56626319409236</v>
       </c>
       <c r="F57" t="n">
-        <v>2.353233983538435</v>
+        <v>2.369573177484909</v>
       </c>
       <c r="G57" t="n">
-        <v>-6.765659684146505</v>
+        <v>-6.764756315250426</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-9.330670868769618</v>
       </c>
       <c r="E58" t="n">
-        <v>-14.29273880312302</v>
+        <v>-14.31665844041486</v>
       </c>
       <c r="F58" t="n">
-        <v>2.174576418960241</v>
+        <v>2.191491674231751</v>
       </c>
       <c r="G58" t="n">
-        <v>-6.7220754079864</v>
+        <v>-6.721708823506831</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-9.660525659477102</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.91632200412056</v>
+        <v>-13.94114501030847</v>
       </c>
       <c r="F59" t="n">
-        <v>2.223515446982613</v>
+        <v>2.242577839920166</v>
       </c>
       <c r="G59" t="n">
-        <v>-6.859662418550099</v>
+        <v>-6.858523388202869</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-9.975575720191317</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.80239278479186</v>
+        <v>-13.82883923653214</v>
       </c>
       <c r="F60" t="n">
-        <v>2.042867852372477</v>
+        <v>2.06193024531003</v>
       </c>
       <c r="G60" t="n">
-        <v>-6.821328155829525</v>
+        <v>-6.821393617343733</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-10.2781288491486</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.47436513709241</v>
+        <v>-13.50036645053608</v>
       </c>
       <c r="F61" t="n">
-        <v>1.921057066733057</v>
+        <v>1.940328936516078</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.149552188071597</v>
+        <v>-7.1518433410689</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-10.56118956669881</v>
       </c>
       <c r="E62" t="n">
-        <v>-13.17093792643257</v>
+        <v>-13.19966243886731</v>
       </c>
       <c r="F62" t="n">
-        <v>1.841272573215579</v>
+        <v>1.861487088803204</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.19326738726012</v>
+        <v>-7.19280915666066</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.8284756160443</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.84335541702974</v>
+        <v>-12.87232868321848</v>
       </c>
       <c r="F63" t="n">
-        <v>1.772930752381769</v>
+        <v>1.79304052954666</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.311792004886267</v>
+        <v>-7.313651111889792</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-11.07471274043074</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.59831987704399</v>
+        <v>-12.62890349648227</v>
       </c>
       <c r="F64" t="n">
-        <v>1.656487810907457</v>
+        <v>1.677383126242852</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.499967673630396</v>
+        <v>-7.496995720885324</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.30285080249464</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.38584489422562</v>
+        <v>-12.41708312880598</v>
       </c>
       <c r="F65" t="n">
-        <v>1.583982637769978</v>
+        <v>1.600086170265301</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.730117265285098</v>
+        <v>-7.730444572856142</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.50748327155436</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.14928007417847</v>
+        <v>-12.18109437008387</v>
       </c>
       <c r="F66" t="n">
-        <v>1.514933832582715</v>
+        <v>1.531115918895088</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.853040896666064</v>
+        <v>-7.851155605056856</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-11.69007425295385</v>
       </c>
       <c r="E67" t="n">
-        <v>-11.96834444890582</v>
+        <v>-12.00047296007942</v>
       </c>
       <c r="F67" t="n">
-        <v>1.559735692907101</v>
+        <v>1.582411561428971</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.814994664608008</v>
+        <v>-7.81636935640639</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-11.84529703174332</v>
       </c>
       <c r="E68" t="n">
-        <v>-11.87692089816205</v>
+        <v>-11.9102277165914</v>
       </c>
       <c r="F68" t="n">
-        <v>1.425146819694157</v>
+        <v>1.443423674461207</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.830679243412396</v>
+        <v>-7.828793951803187</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-11.97320271367116</v>
       </c>
       <c r="E69" t="n">
-        <v>-11.72787812261184</v>
+        <v>-11.76144678709802</v>
       </c>
       <c r="F69" t="n">
-        <v>1.309410862573299</v>
+        <v>1.332610423208838</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.903276062669767</v>
+        <v>-7.901390771060559</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-12.06905030887081</v>
       </c>
       <c r="E70" t="n">
-        <v>-11.6256403297208</v>
+        <v>-11.66144777799292</v>
       </c>
       <c r="F70" t="n">
-        <v>1.357642906242218</v>
+        <v>1.37942849817085</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.845683022469014</v>
+        <v>-7.842855085055201</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-12.13219673381071</v>
       </c>
       <c r="E71" t="n">
-        <v>-11.35896321313768</v>
+        <v>-11.39365781566825</v>
       </c>
       <c r="F71" t="n">
-        <v>1.295847236829271</v>
+        <v>1.318130336265888</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.704770566983516</v>
+        <v>-7.697700723448984</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-12.16002083423384</v>
       </c>
       <c r="E72" t="n">
-        <v>-11.30313763382056</v>
+        <v>-11.33749183647725</v>
       </c>
       <c r="F72" t="n">
-        <v>1.348609217281427</v>
+        <v>1.369661640250922</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.706223812598948</v>
+        <v>-7.700947614553733</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-12.15275497796672</v>
       </c>
       <c r="E73" t="n">
-        <v>-11.28268745678178</v>
+        <v>-11.30871495483114</v>
       </c>
       <c r="F73" t="n">
-        <v>1.321822365667255</v>
+        <v>1.342953342453801</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.593119408349277</v>
+        <v>-7.583522750366291</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-12.11129377946987</v>
       </c>
       <c r="E74" t="n">
-        <v>-11.47809007669454</v>
+        <v>-11.50431395928652</v>
       </c>
       <c r="F74" t="n">
-        <v>1.369399794194088</v>
+        <v>1.389876155838547</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.47763220498241</v>
+        <v>-7.469868469397267</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-12.03760290540958</v>
       </c>
       <c r="E75" t="n">
-        <v>-11.60660412138893</v>
+        <v>-11.63294583470648</v>
       </c>
       <c r="F75" t="n">
-        <v>1.301267450205745</v>
+        <v>1.321717627244521</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.346146207542956</v>
+        <v>-7.340058286721553</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-11.9366850519902</v>
       </c>
       <c r="E76" t="n">
-        <v>-11.94577331880668</v>
+        <v>-11.96985006373262</v>
       </c>
       <c r="F76" t="n">
-        <v>1.328054301819917</v>
+        <v>1.34719524857452</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.153650078861057</v>
+        <v>-7.143215513496202</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-11.8117148398712</v>
       </c>
       <c r="E77" t="n">
-        <v>-12.55910843003302</v>
+        <v>-12.58212469842878</v>
       </c>
       <c r="F77" t="n">
-        <v>1.301568573171105</v>
+        <v>1.321272488947903</v>
       </c>
       <c r="G77" t="n">
-        <v>-6.980059235482612</v>
+        <v>-6.972910838131029</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-11.6704211540963</v>
       </c>
       <c r="E78" t="n">
-        <v>-13.0895561719684</v>
+        <v>-13.11148577922829</v>
       </c>
       <c r="F78" t="n">
-        <v>1.329075501441571</v>
+        <v>1.349420940057614</v>
       </c>
       <c r="G78" t="n">
-        <v>-6.840010871984668</v>
+        <v>-6.837248396085063</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-11.51438880799303</v>
       </c>
       <c r="E79" t="n">
-        <v>-13.5852176652533</v>
+        <v>-13.60693779566773</v>
       </c>
       <c r="F79" t="n">
-        <v>1.38906443306236</v>
+        <v>1.408990917987467</v>
       </c>
       <c r="G79" t="n">
-        <v>-6.663160045198632</v>
+        <v>-6.662649445387805</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-11.35000362985599</v>
       </c>
       <c r="E80" t="n">
-        <v>-14.14360438145292</v>
+        <v>-14.16504957350767</v>
       </c>
       <c r="F80" t="n">
-        <v>1.37798834485826</v>
+        <v>1.395113076975238</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.39811946647073</v>
+        <v>-6.395186790634183</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.17583891930929</v>
       </c>
       <c r="E81" t="n">
-        <v>-14.92819990615188</v>
+        <v>-14.9492916060299</v>
       </c>
       <c r="F81" t="n">
-        <v>1.439705460454157</v>
+        <v>1.457851392192789</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.2813884943339</v>
+        <v>-6.280092356352569</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-10.99825965344772</v>
       </c>
       <c r="E82" t="n">
-        <v>-15.68291879576602</v>
+        <v>-15.70329041898775</v>
       </c>
       <c r="F82" t="n">
-        <v>1.474295324561997</v>
+        <v>1.490660703114155</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.196655110342249</v>
+        <v>-6.194913834064299</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-10.81428177619885</v>
       </c>
       <c r="E83" t="n">
-        <v>-16.55147525858897</v>
+        <v>-16.57206945095901</v>
       </c>
       <c r="F83" t="n">
-        <v>1.429990971745596</v>
+        <v>1.44708951925689</v>
       </c>
       <c r="G83" t="n">
-        <v>-5.937453698681757</v>
+        <v>-5.934704315084994</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-10.62910173965285</v>
       </c>
       <c r="E84" t="n">
-        <v>-17.62250418485921</v>
+        <v>-17.64261396202411</v>
       </c>
       <c r="F84" t="n">
-        <v>1.515719370753218</v>
+        <v>1.53074933441552</v>
       </c>
       <c r="G84" t="n">
-        <v>-5.747837876625037</v>
+        <v>-5.747287999905685</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.43760939134929</v>
       </c>
       <c r="E85" t="n">
-        <v>-18.43480302237127</v>
+        <v>-18.45454621505659</v>
       </c>
       <c r="F85" t="n">
-        <v>1.50655475876401</v>
+        <v>1.522579737442283</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.538910907876772</v>
+        <v>-5.540364153492204</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.24479308067277</v>
       </c>
       <c r="E86" t="n">
-        <v>-19.52107138914928</v>
+        <v>-19.54255585811255</v>
       </c>
       <c r="F86" t="n">
-        <v>1.502339037248974</v>
+        <v>1.518154539081779</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.242605909962829</v>
+        <v>-5.242893940625346</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-10.0457872041787</v>
       </c>
       <c r="E87" t="n">
-        <v>-20.58029105825629</v>
+        <v>-20.60197191176218</v>
       </c>
       <c r="F87" t="n">
-        <v>1.529413919525664</v>
+        <v>1.539468808108109</v>
       </c>
       <c r="G87" t="n">
-        <v>-4.972380779309603</v>
+        <v>-4.970102718615142</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-9.846704940489746</v>
       </c>
       <c r="E88" t="n">
-        <v>-21.94301649184018</v>
+        <v>-21.96412128402105</v>
       </c>
       <c r="F88" t="n">
-        <v>1.580709562059547</v>
+        <v>1.591968942503431</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.659880602780443</v>
+        <v>-4.65993297199181</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-9.644233492309953</v>
       </c>
       <c r="E89" t="n">
-        <v>-23.41156700929375</v>
+        <v>-23.43018426393469</v>
       </c>
       <c r="F89" t="n">
-        <v>1.372620500693152</v>
+        <v>1.385974649591713</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.321156543659306</v>
+        <v>-4.319912774889342</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-9.444665996990022</v>
       </c>
       <c r="E90" t="n">
-        <v>-24.90063316530031</v>
+        <v>-24.91868745091905</v>
       </c>
       <c r="F90" t="n">
-        <v>1.225188078392475</v>
+        <v>1.236670027984669</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.126264523557372</v>
+        <v>-4.127325000087551</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-9.244671796711607</v>
       </c>
       <c r="E91" t="n">
-        <v>-26.5548456293524</v>
+        <v>-26.57258569970294</v>
       </c>
       <c r="F91" t="n">
-        <v>1.060918954637338</v>
+        <v>1.07124878157946</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.088519414464676</v>
+        <v>-4.087773153202697</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-9.049893996554443</v>
       </c>
       <c r="E92" t="n">
-        <v>-28.25795784451834</v>
+        <v>-28.27260813139823</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9769711088161905</v>
+        <v>0.9861880900167658</v>
       </c>
       <c r="G92" t="n">
-        <v>-3.843064920787995</v>
+        <v>-3.841624767475405</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-8.858472629733228</v>
       </c>
       <c r="E93" t="n">
-        <v>-30.15208675814505</v>
+        <v>-30.16545399934646</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8542307696750087</v>
+        <v>0.8630026125789652</v>
       </c>
       <c r="G93" t="n">
-        <v>-3.885902935686123</v>
+        <v>-3.88299644445526</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-8.675106059832299</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.29469448740489</v>
+        <v>-32.30621571390561</v>
       </c>
       <c r="F94" t="n">
-        <v>0.7634225571647967</v>
+        <v>0.7715528772295086</v>
       </c>
       <c r="G94" t="n">
-        <v>-3.924211013801013</v>
+        <v>-3.920034569194503</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-8.499821144328207</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.387813311923</v>
+        <v>-34.39756707754009</v>
       </c>
       <c r="F95" t="n">
-        <v>0.3522064172090226</v>
+        <v>0.3605331218163604</v>
       </c>
       <c r="G95" t="n">
-        <v>-3.928413643013208</v>
+        <v>-3.923713506293028</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-8.333710106756024</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.40711773301947</v>
+        <v>-36.41548371453533</v>
       </c>
       <c r="F96" t="n">
-        <v>0.07070881380907042</v>
+        <v>0.08067205627162395</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.104321823994639</v>
+        <v>-4.100669071501797</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-8.177692411531524</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.54210574202542</v>
+        <v>-38.54914940095427</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2553942653726425</v>
+        <v>-0.2470151915539378</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.19231519139388</v>
+        <v>-4.186070162938377</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-8.026122910743414</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.88933307239859</v>
+        <v>-40.89282871725734</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.5195052905987825</v>
+        <v>-0.5095682327419124</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.399003376356209</v>
+        <v>-4.392575055660922</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-7.880097352343364</v>
       </c>
       <c r="E99" t="n">
-        <v>-43.31426322013741</v>
+        <v>-43.31644963471199</v>
       </c>
       <c r="F99" t="n">
-        <v>-0.436081136891304</v>
+        <v>-0.4262619097600094</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.718377011877275</v>
+        <v>-4.712223629541664</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-7.724083585519709</v>
       </c>
       <c r="E100" t="n">
-        <v>-45.79975836082206</v>
+        <v>-45.79966671470217</v>
       </c>
       <c r="F100" t="n">
-        <v>-0.5784992072036002</v>
+        <v>-0.5722934556566219</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.964014797793739</v>
+        <v>-4.956080862271653</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.56424237450091</v>
       </c>
       <c r="E101" t="n">
-        <v>-48.20287673202656</v>
+        <v>-48.20265416287825</v>
       </c>
       <c r="F101" t="n">
-        <v>-0.6065036429820522</v>
+        <v>-0.5976663385638871</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.322966464805343</v>
+        <v>-5.312715191680272</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-7.372377987710176</v>
       </c>
       <c r="E102" t="n">
-        <v>-50.49595429784636</v>
+        <v>-50.49353222182064</v>
       </c>
       <c r="F102" t="n">
-        <v>-0.7301211664136297</v>
+        <v>-0.7219384771375509</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.641266531493387</v>
+        <v>-5.632154288715546</v>
       </c>
     </row>
   </sheetData>
